--- a/data/Data_Sample_11_06_2023.xlsx
+++ b/data/Data_Sample_11_06_2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="20" windowWidth="25600" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="5320" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Customer_id</t>
   </si>
@@ -55,16 +55,80 @@
   </si>
   <si>
     <t>entertainment</t>
+  </si>
+  <si>
+    <t>e2038</t>
+  </si>
+  <si>
+    <t>e2039</t>
+  </si>
+  <si>
+    <t>e2040</t>
+  </si>
+  <si>
+    <t>e2041</t>
+  </si>
+  <si>
+    <t>e2042</t>
+  </si>
+  <si>
+    <t>e2043</t>
+  </si>
+  <si>
+    <t>e2044</t>
+  </si>
+  <si>
+    <t>e2045</t>
+  </si>
+  <si>
+    <t>e2046</t>
+  </si>
+  <si>
+    <t>e2047</t>
+  </si>
+  <si>
+    <t>e2048</t>
+  </si>
+  <si>
+    <t>e2049</t>
+  </si>
+  <si>
+    <t>e2050</t>
+  </si>
+  <si>
+    <t>e2051</t>
+  </si>
+  <si>
+    <t>e2052</t>
+  </si>
+  <si>
+    <t>e2053</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +151,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -522,8 +598,197 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>337</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>212</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>337</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>232</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>339</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>340</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>340</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>342</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>343</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>344</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>212</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>345</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>346</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>346</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>348</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>349</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>350</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>353</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>353</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>212</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
